--- a/untuk_cs/data_blast/rekap_himpunan/new/REKAP HIMPUNAN NOVEMBER 7778.xlsx
+++ b/untuk_cs/data_blast/rekap_himpunan/new/REKAP HIMPUNAN NOVEMBER 7778.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\TEMANBAIK.ID\DATA 7778\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\isra holding company\untuk_cs\data_blast\rekap_himpunan\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E6960B-58C9-4F46-9D7F-D0D97EEAE8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A04196-6935-4BB1-B82C-B2EDBC903F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rekap_himpunan" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -299,9 +288,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -336,7 +326,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -402,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -472,24 +462,42 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="25">
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -721,24 +729,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center"/>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
       <border>
         <left style="thin">
@@ -1471,7 +1461,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="5" dataPosition="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="1" dataPosition="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G24" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -1605,7 +1595,7 @@
     <dataField name="Count of No" fld="0" subtotal="count" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="17">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -1617,7 +1607,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="15">
       <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1643,15 +1633,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:I54" totalsRowShown="0">
   <autoFilter ref="A1:I54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Donatur" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Whatsapp" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Payment Account" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Date Blast" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nomor CS" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column1" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Donatur" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Whatsapp" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Payment Account" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Date Blast" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nomor CS" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column1" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1917,24 +1907,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="11" width="27.81640625" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1950,7 +1940,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1979,7 +1969,7 @@
       <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="35" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -2010,7 +2000,7 @@
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="35" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -2023,8 +2013,8 @@
         <v>50000</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="7">
@@ -2039,7 +2029,7 @@
       <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="35" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -2066,7 +2056,7 @@
       <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="35" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -2099,7 +2089,7 @@
       <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -2132,7 +2122,7 @@
       <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -2165,7 +2155,7 @@
       <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="35" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -2196,7 +2186,7 @@
       <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="35" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -2229,7 +2219,7 @@
       <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="35" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -2262,7 +2252,7 @@
       <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="35" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -2295,7 +2285,7 @@
       <c r="D12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="35" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -2326,7 +2316,7 @@
       <c r="D13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="35" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -2356,7 +2346,7 @@
       <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="35" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="11">
@@ -2386,8 +2376,8 @@
       <c r="D15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="11">
-        <v>45699</v>
+      <c r="E15" s="35">
+        <v>45963</v>
       </c>
       <c r="F15" s="11">
         <v>45699</v>
@@ -2419,8 +2409,8 @@
       <c r="D16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="11">
-        <v>45699</v>
+      <c r="E16" s="35">
+        <v>45963</v>
       </c>
       <c r="F16" s="11">
         <v>45699</v>
@@ -2450,8 +2440,8 @@
       <c r="D17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="11">
-        <v>45699</v>
+      <c r="E17" s="35">
+        <v>45963</v>
       </c>
       <c r="F17" s="11">
         <v>45699</v>
@@ -2480,8 +2470,8 @@
       <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="11">
-        <v>45727</v>
+      <c r="E18" s="35">
+        <v>45964</v>
       </c>
       <c r="F18" s="11">
         <v>45727</v>
@@ -2511,8 +2501,8 @@
       <c r="D19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="11">
-        <v>45727</v>
+      <c r="E19" s="35">
+        <v>45964</v>
       </c>
       <c r="F19" s="11">
         <v>45727</v>
@@ -2541,8 +2531,8 @@
       <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="11">
-        <v>45727</v>
+      <c r="E20" s="35">
+        <v>45964</v>
       </c>
       <c r="F20" s="11">
         <v>45727</v>
@@ -2568,7 +2558,7 @@
       <c r="D21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="36" t="s">
         <v>56</v>
       </c>
       <c r="F21" s="11">
@@ -2595,8 +2585,8 @@
       <c r="D22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="11">
-        <v>45849</v>
+      <c r="E22" s="35">
+        <v>45968</v>
       </c>
       <c r="F22" s="11">
         <v>45849</v>
@@ -2623,7 +2613,7 @@
       <c r="D23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="35" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="11">
@@ -2650,8 +2640,8 @@
       <c r="D24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="11">
-        <v>45849</v>
+      <c r="E24" s="35">
+        <v>45968</v>
       </c>
       <c r="F24" s="11">
         <v>45849</v>
@@ -2677,7 +2667,7 @@
       <c r="D25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="35" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="11">
@@ -2704,8 +2694,8 @@
       <c r="D26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="11">
-        <v>45849</v>
+      <c r="E26" s="35">
+        <v>45968</v>
       </c>
       <c r="F26" s="11">
         <v>45849</v>
@@ -2731,8 +2721,8 @@
       <c r="D27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="11">
-        <v>45849</v>
+      <c r="E27" s="35">
+        <v>45968</v>
       </c>
       <c r="F27" s="11">
         <v>45849</v>
@@ -2758,8 +2748,8 @@
       <c r="D28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="11">
-        <v>45849</v>
+      <c r="E28" s="35">
+        <v>45968</v>
       </c>
       <c r="F28" s="11">
         <v>45849</v>
@@ -2785,7 +2775,7 @@
       <c r="D29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="37" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="11">
@@ -2812,7 +2802,7 @@
       <c r="D30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="37" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="20">
@@ -2839,7 +2829,7 @@
       <c r="D31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="37" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="20">
@@ -2866,8 +2856,8 @@
       <c r="D32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="11">
-        <v>45911</v>
+      <c r="E32" s="35">
+        <v>45970</v>
       </c>
       <c r="F32" s="20">
         <v>45972</v>
@@ -2894,7 +2884,7 @@
       <c r="D33" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="35" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="20">
@@ -2921,7 +2911,7 @@
       <c r="D34" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="37" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="20">
@@ -2948,7 +2938,7 @@
       <c r="D35" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="37" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="20">
@@ -2975,7 +2965,7 @@
       <c r="D36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="37" t="s">
         <v>27</v>
       </c>
       <c r="F36" s="20" t="s">
@@ -3002,7 +2992,7 @@
       <c r="D37" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F37" s="20" t="s">
@@ -3020,7 +3010,7 @@
         <v>825000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.5">
+    <row r="38" spans="1:12" ht="15.75">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -3033,7 +3023,7 @@
       <c r="D38" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F38" s="20" t="s">
@@ -3060,7 +3050,7 @@
       <c r="D39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="20" t="s">
@@ -3088,7 +3078,7 @@
       <c r="D40" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F40" s="20" t="s">
@@ -3115,7 +3105,7 @@
       <c r="D41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F41" s="20" t="s">
@@ -3129,7 +3119,7 @@
       </c>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:12" ht="15.5">
+    <row r="42" spans="1:12" ht="15.75">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -3142,7 +3132,7 @@
       <c r="D42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F42" s="20" t="s">
@@ -3170,7 +3160,7 @@
       <c r="D43" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="37" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="20" t="s">
@@ -3197,7 +3187,7 @@
       <c r="D44" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="37" t="s">
         <v>75</v>
       </c>
       <c r="F44" s="20" t="s">
@@ -3224,7 +3214,7 @@
       <c r="D45" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="37" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="20" t="s">
@@ -3251,7 +3241,7 @@
       <c r="D46" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="37" t="s">
         <v>75</v>
       </c>
       <c r="F46" s="20" t="s">
@@ -3278,7 +3268,7 @@
       <c r="D47" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="37" t="s">
         <v>38</v>
       </c>
       <c r="F47" s="20" t="s">
@@ -3305,7 +3295,7 @@
       <c r="D48" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="37" t="s">
         <v>80</v>
       </c>
       <c r="F48" s="20" t="s">
@@ -3332,7 +3322,7 @@
       <c r="D49" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="37" t="s">
         <v>38</v>
       </c>
       <c r="F49" s="20" t="s">
@@ -3359,7 +3349,7 @@
       <c r="D50" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="37" t="s">
         <v>83</v>
       </c>
       <c r="F50" s="20" t="s">
@@ -3386,7 +3376,7 @@
       <c r="D51" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="37" t="s">
         <v>84</v>
       </c>
       <c r="F51" s="20" t="s">
@@ -3405,7 +3395,7 @@
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="20"/>
+      <c r="E52" s="37"/>
       <c r="F52" s="20"/>
       <c r="G52" s="21"/>
       <c r="H52" s="19"/>
@@ -3416,7 +3406,7 @@
       <c r="B53" s="16"/>
       <c r="C53" s="17"/>
       <c r="D53" s="18"/>
-      <c r="E53" s="20"/>
+      <c r="E53" s="37"/>
       <c r="F53" s="20"/>
       <c r="G53" s="21"/>
       <c r="H53" s="19"/>
@@ -3427,7 +3417,7 @@
       <c r="B54" s="16"/>
       <c r="C54" s="17"/>
       <c r="D54" s="18"/>
-      <c r="E54" s="20"/>
+      <c r="E54" s="37"/>
       <c r="F54" s="20"/>
       <c r="G54" s="21"/>
       <c r="H54" s="19"/>
@@ -3445,32 +3435,32 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D54" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3496,15 +3486,15 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
@@ -3550,15 +3540,13 @@
       <c r="B6" s="2">
         <v>100000</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
       <c r="F6" s="2">
         <v>100000</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
@@ -3569,15 +3557,13 @@
       <c r="B7" s="2">
         <v>350000</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
       <c r="F7" s="2">
         <v>350000</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7">
         <v>4</v>
       </c>
     </row>
@@ -3588,15 +3574,13 @@
       <c r="B8" s="2">
         <v>150000</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
       <c r="F8" s="2">
         <v>150000</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8">
         <v>2</v>
       </c>
     </row>
@@ -3607,15 +3591,13 @@
       <c r="B9" s="2">
         <v>150000</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
       <c r="F9" s="2">
         <v>150000</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9">
         <v>2</v>
       </c>
     </row>
@@ -3626,15 +3608,13 @@
       <c r="B10" s="2">
         <v>100000</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
       <c r="F10" s="2">
         <v>100000</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
@@ -3645,15 +3625,13 @@
       <c r="B11" s="2">
         <v>395000</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
       <c r="F11" s="2">
         <v>395000</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11">
         <v>6</v>
       </c>
     </row>
@@ -3662,11 +3640,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
@@ -3675,15 +3649,13 @@
       <c r="B13" s="2">
         <v>450000</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
       <c r="F13" s="2">
         <v>450000</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13">
         <v>8</v>
       </c>
     </row>
@@ -3694,15 +3666,13 @@
       <c r="B14" s="2">
         <v>250000</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
       <c r="F14" s="2">
         <v>250000</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14">
         <v>3</v>
       </c>
     </row>
@@ -3713,15 +3683,13 @@
       <c r="B15" s="2">
         <v>200000</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
       <c r="F15" s="2">
         <v>200000</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15">
         <v>3</v>
       </c>
     </row>
@@ -3732,15 +3700,13 @@
       <c r="B16" s="2">
         <v>200000</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
       <c r="F16" s="2">
         <v>200000</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16">
         <v>2</v>
       </c>
     </row>
@@ -3751,15 +3717,13 @@
       <c r="B17" s="2">
         <v>400000</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
       <c r="F17" s="2">
         <v>400000</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17">
         <v>5</v>
       </c>
     </row>
@@ -3770,15 +3734,13 @@
       <c r="B18" s="2">
         <v>50000</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
       <c r="F18" s="2">
         <v>50000</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18">
         <v>1</v>
       </c>
     </row>
@@ -3789,15 +3751,13 @@
       <c r="B19" s="2">
         <v>825000</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19">
         <v>6</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
       <c r="F19" s="2">
         <v>825000</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19">
         <v>6</v>
       </c>
     </row>
@@ -3808,15 +3768,13 @@
       <c r="B20" s="2">
         <v>150000</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
       <c r="F20" s="2">
         <v>150000</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20">
         <v>3</v>
       </c>
     </row>
@@ -3827,15 +3785,13 @@
       <c r="B21" s="2">
         <v>100000</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
       <c r="F21" s="2">
         <v>100000</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21">
         <v>1</v>
       </c>
     </row>
@@ -3846,15 +3802,13 @@
       <c r="B22" s="2">
         <v>50000</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
       <c r="F22" s="2">
         <v>50000</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22">
         <v>1</v>
       </c>
     </row>
@@ -3865,15 +3819,13 @@
       <c r="B23" s="2">
         <v>100000</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
       <c r="F23" s="2">
         <v>100000</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23">
         <v>1</v>
       </c>
     </row>
@@ -3884,15 +3836,13 @@
       <c r="B24" s="2">
         <v>4020000</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24">
         <v>50</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
       <c r="F24" s="2">
         <v>4020000</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24">
         <v>50</v>
       </c>
     </row>
